--- a/organismo/Dirección General de Relaciones Económicas Internacionales (DIRECON).xlsx
+++ b/organismo/Dirección General de Relaciones Económicas Internacionales (DIRECON).xlsx
@@ -434,32 +434,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MARIA ANTONIETA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>JARA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ARAYA</t>
+          <t>VALDERRAMA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4254038,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -480,32 +480,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>NANCY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>VILLARROEL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CUEVAS</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TÉCNICO ADMINISTRATIVO MENCIÓN SECRETARIADO</t>
+          <t>SECRETARIA EJECUTIVA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TELEFONISTA SECCION SERVICIOS GENERALES</t>
+          <t>SECRETARIA SUBDEPARTAMENTO EUROPA  PROCHILE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1074311,0</t>
+          <t>1108227,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -526,17 +526,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PAULINA</t>
+          <t>CAROLINA PAZ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NAZAL</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ARANDA</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DIRECTORA GENERAL  DE RELACIONES ECONOMICAS INTERNACIONALES</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7414636,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -572,32 +572,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t>GEMITA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OSSES</t>
+          <t>VARAS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAVERO</t>
+          <t>AVILA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>SECRETARIA EJECUTIVA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
+          <t>SECRETARIA SUBDEPARTAMENTO DE FINANZAS</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2244,0</t>
+          <t>1150623,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -618,32 +618,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MARCELA ANGELICA</t>
+          <t>PABLO ANDRES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OTERO</t>
+          <t>URRIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>HERING</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DIRECTORA  DE ASUNTOS ECONOMICOS MULTILATERAL</t>
+          <t>DIRECTOR DE ASUNTOS ECONOMICOS BILATERALES</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6687266,0</t>
+          <t>7157374,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -664,32 +664,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>JUAN ULISES</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>TRINCADO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>CLAVERO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2501,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -710,32 +710,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROBERTO</t>
+          <t>DIEGO JOSE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PAIVA</t>
+          <t>TORRES</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>REINERO</t>
+          <t>DIEZ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>CIENTISTA POLITICO</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2383,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -756,32 +756,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO</t>
+          <t>ROSSANA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PARRAGUEZ</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BRAVO</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PÚBLICO</t>
+          <t>TÉCNICO EN COMERCIO EXTERIOR</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
+          <t>ANALISTA SUBDEPARTAMENTO DE INFORMACION COMERCIAL</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2169,0</t>
+          <t>1142143,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -802,32 +802,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MATILDE</t>
+          <t>LORENA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>POZO</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHIRINO</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>COORDINADORA REGIONAL SECTOR SERVICIOS DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
+          <t>JEFA DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3016955,0</t>
+          <t>4053967,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -848,32 +848,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>LORENA ANDREA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HERMOSILLA</t>
+          <t>PINO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>INGENIERO EN ADMINISTRACIÓN AGROINDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ASISTENTE CENTRO EXPORTADOR VALPARAISO</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LA PAZ BOLIVIA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3576759,0</t>
+          <t>2306,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -894,32 +894,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JUAN CARLOS</t>
+          <t>MARIA JULIA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>RIQUELME</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>ALVEAR</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ASISTENTE DEPARTAMENTO DE CERTIFICACION Y VERIFICACION DE ORIGEN</t>
+          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3210232,0</t>
+          <t>2172,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -940,32 +940,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VERONICA DE LOURDES</t>
+          <t>EVELYN PATRICIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PULGAR</t>
+          <t>RAKOS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>DONOSO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1228,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -986,32 +986,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EVELYN PATRICIA</t>
+          <t>VERONICA DE LOURDES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAKOS</t>
+          <t>PULGAR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DONOSO</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
+          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>1228,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1032,32 +1032,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MARIA JULIA</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RIQUELME</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ALVEAR</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
+          <t>ASISTENTE DEPARTAMENTO DE CERTIFICACION Y VERIFICACION DE ORIGEN</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2172,0</t>
+          <t>3210232,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LORENA ANDREA</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PINO</t>
+          <t>HERMOSILLA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO EN ADMINISTRACIÓN AGROINDUSTRIAL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LA PAZ BOLIVIA</t>
+          <t>ASISTENTE CENTRO EXPORTADOR VALPARAISO</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2306,0</t>
+          <t>3576759,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1124,32 +1124,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LORENA</t>
+          <t>MATILDE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>POZO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>CHIRINO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>JEFA DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
+          <t>COORDINADORA REGIONAL SECTOR SERVICIOS DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4053967,0</t>
+          <t>3016955,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROSSANA</t>
+          <t>CARLOS PATRICIO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>PARRAGUEZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>BRAVO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TÉCNICO EN COMERCIO EXTERIOR</t>
+          <t>ADMINISTRADOR PÚBLICO</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ANALISTA SUBDEPARTAMENTO DE INFORMACION COMERCIAL</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1142143,0</t>
+          <t>2169,0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1216,32 +1216,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DIEGO JOSE</t>
+          <t>ROBERTO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TORRES</t>
+          <t>PAIVA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DIEZ</t>
+          <t>REINERO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CIENTISTA POLITICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2383,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1262,32 +1262,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>JUAN ULISES</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRINCADO</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CLAVERO</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2501,0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1308,32 +1308,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PABLO ANDRES</t>
+          <t>MARCELA ANGELICA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>URRIA</t>
+          <t>OTERO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HERING</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>DIRECTOR DE ASUNTOS ECONOMICOS BILATERALES</t>
+          <t>DIRECTORA  DE ASUNTOS ECONOMICOS MULTILATERAL</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7157374,0</t>
+          <t>6687266,0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1354,32 +1354,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GEMITA</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VARAS</t>
+          <t>OSSES</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>AVILA</t>
+          <t>CAVERO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SECRETARIA EJECUTIVA</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SECRETARIA SUBDEPARTAMENTO DE FINANZAS</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1150623,0</t>
+          <t>2244,0</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1400,17 +1400,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CAROLINA PAZ</t>
+          <t>PAULINA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>NAZAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>ARANDA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
+          <t>DIRECTORA GENERAL  DE RELACIONES ECONOMICAS INTERNACIONALES</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>7414636,0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1446,32 +1446,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NANCY</t>
+          <t>CARMEN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VILLARROEL</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>CUEVAS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SECRETARIA EJECUTIVA</t>
+          <t>TÉCNICO ADMINISTRATIVO MENCIÓN SECRETARIADO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SECRETARIA SUBDEPARTAMENTO EUROPA  PROCHILE</t>
+          <t>TELEFONISTA SECCION SERVICIOS GENERALES</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1108227,0</t>
+          <t>1074311,0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1492,32 +1492,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BANCHIERI</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>ARAYA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
+          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2380,0</t>
+          <t>4254038,0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1538,32 +1538,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FERNANDO JOSE</t>
+          <t>PAULA XIMENA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>MORENO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MÉDICO VETERINARIO</t>
+          <t>BIOLOGO MARINO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2342,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1584,32 +1584,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MARIA CECILIA</t>
+          <t>JUAN MANUEL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ARROYO</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ALBALA</t>
+          <t>PIÑA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>JEFA SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
+          <t>JEFE DEPARTAMENTO DE TRANSPARENCIA MINREL</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4284209,0</t>
+          <t>1099573,0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1630,32 +1630,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ALICIA</t>
+          <t>GIORNA MARIA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ALVAREZ</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ESCOBAR</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CONTADOR GENERAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ASISTENTE SECCION TESORERIA</t>
+          <t>DIRECTORA DEPARTAMENTO ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1172827,0</t>
+          <t>6855238,0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1676,32 +1676,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BANDA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>BARRIA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PÚBLICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO DE GESTION Y PLANIFICACION</t>
+          <t>ASESOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4203252,0</t>
+          <t>3698771,0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1722,27 +1722,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PATRICIO</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BARRUECO</t>
+          <t>MONARDES</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>VIGNOLO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
+          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1768,32 +1768,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>RODRIGO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BUVINIC</t>
+          <t>MLADINIC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>DRAGUICEVIC</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>7184124,0</t>
+          <t>2470,0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1814,27 +1814,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>MIKHAEL HANNA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>MARZUQA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>REYES</t>
+          <t>BUTTO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
+          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1860,32 +1860,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>OSVALDO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>MARINAO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MERINO</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SOCIÓLOGO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JOSE MANUEL</t>
+          <t>FELIPE ALEJANDRO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CAMPOS</t>
+          <t>HENRIQUEZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ABAD</t>
+          <t>PALMA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CIENTISTA POLÍTICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1952,32 +1952,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>HERNAN ALFONSO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CAMPUSANO</t>
+          <t>GUTIERREZ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>BERMEDO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL EN MINAS</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2458,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1998,32 +1998,32 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ALBERTO</t>
+          <t>GUILLERMO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CAÑAS</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>MONTECINOS</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO AGRÓNOMO</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ASISTENTE SUBDEPARTAMENTO ASIA Y OCEANIA</t>
+          <t>JEFE SECCION PERSONAL RED EXTERNA</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3053811,0</t>
+          <t>3249297,0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -2044,32 +2044,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PATRICIO ANDRES</t>
+          <t>LUIS HUMBERTO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CANIULAO</t>
+          <t>GARCIA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>ARAYA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
+          <t>LICENCIA EDUCACION MEDIA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
+          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2246,0</t>
+          <t>996,0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2090,32 +2090,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>SACHA DALIBOR</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CARRASCO</t>
+          <t>GARAFULIC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>OLIVARES</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2456,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2136,32 +2136,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>FEDERICO ANDRES</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CASES</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NARDOCCI</t>
+          <t>VERGARA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INFORMÁTICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
+          <t>DIRECTOR DEPARTAMENTO JURIDICO</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2517,0</t>
+          <t>6932680,0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2182,32 +2182,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ROSA CRISTINA</t>
+          <t>MICHEL ORLANDO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CAYUPI</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ALCA</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PROFESOR DE ALEMÁN Y BIBLIOTECARIO</t>
+          <t>LICENCIA EDUCACION MEDIA</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>JEFA DE SECCION DE GESTION DOCUMENTAL</t>
+          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN MONTEVIDEO  URUGUAY</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3615824,0</t>
+          <t>982,0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2228,32 +2228,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>JUAN ROBERTO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CERDA</t>
+          <t>FIERRO</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>CEREÑO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>PROFESOR DE HISTORIA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
+          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2348,0</t>
+          <t>2688,0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ALEJANDRO SHARIFF</t>
+          <t>IGNACIO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHACOFF</t>
+          <t>FERNANDEZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>2383,0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2320,17 +2320,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CONTRERAS</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HUERTA</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2340,12 +2340,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EEUU</t>
+          <t>JEFE DEPARTAMENTO OMC</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2473,0</t>
+          <t>4635953,0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2366,32 +2366,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HUGO ALBERTO</t>
+          <t>HECTOR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CORALES</t>
+          <t>ECHEVERRIA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>COFRE</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2306,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2412,32 +2412,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO</t>
+          <t>MONICA CONSUELO</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FINSTERBUSCH</t>
+          <t>PLAZA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO PROPIEDAD INTELECTUAL</t>
+          <t>SECRETARIA DEPARTAMENTO DE ESTUDIOS</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2356671,0</t>
+          <t>1065832,0</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2504,32 +2504,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MONICA CONSUELO</t>
+          <t>MARTIN ALEJANDRO</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PLAZA</t>
+          <t>FINSTERBUSCH</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SECRETARIA DEPARTAMENTO DE ESTUDIOS</t>
+          <t>JEFE DEPARTAMENTO PROPIEDAD INTELECTUAL</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1065832,0</t>
+          <t>2356671,0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HECTOR</t>
+          <t>HUGO ALBERTO</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECHEVERRIA</t>
+          <t>CORALES</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>COFRE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2306,0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>CONTRERAS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>HUERTA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO OMC</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EEUU</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4635953,0</t>
+          <t>2473,0</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2642,32 +2642,32 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IGNACIO</t>
+          <t>ALEJANDRO SHARIFF</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FERNANDEZ</t>
+          <t>CHACOFF</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2383,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2688,32 +2688,32 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>JUAN ROBERTO</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FIERRO</t>
+          <t>CERDA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CEREÑO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2688,0</t>
+          <t>2348,0</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2734,32 +2734,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MICHEL ORLANDO</t>
+          <t>ROSA CRISTINA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>CAYUPI</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>ALCA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>LICENCIA EDUCACION MEDIA</t>
+          <t>PROFESOR DE ALEMÁN Y BIBLIOTECARIO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN MONTEVIDEO  URUGUAY</t>
+          <t>JEFA DE SECCION DE GESTION DOCUMENTAL</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>982,0</t>
+          <t>3615824,0</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FEDERICO ANDRES</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>CASES</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VERGARA</t>
+          <t>NARDOCCI</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL INFORMÁTICO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DIRECTOR DEPARTAMENTO JURIDICO</t>
+          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6932680,0</t>
+          <t>2517,0</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2826,32 +2826,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SACHA DALIBOR</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GARAFULIC</t>
+          <t>CARRASCO</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OLIVARES</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2456,0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2872,32 +2872,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LUIS HUMBERTO</t>
+          <t>PATRICIO ANDRES</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GARCIA</t>
+          <t>CANIULAO</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ARAYA</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LICENCIA EDUCACION MEDIA</t>
+          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>996,0</t>
+          <t>2246,0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2918,32 +2918,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>GUILLERMO</t>
+          <t>ALBERTO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GARRIDO</t>
+          <t>CAÑAS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MONTECINOS</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>INGENIERO AGRÓNOMO</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>JEFE SECCION PERSONAL RED EXTERNA</t>
+          <t>ASISTENTE SUBDEPARTAMENTO ASIA Y OCEANIA</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3249297,0</t>
+          <t>3053811,0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2964,32 +2964,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HERNAN ALFONSO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GUTIERREZ</t>
+          <t>CAMPUSANO</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>BERMEDO</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL EN MINAS</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>2458,0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FELIPE ALEJANDRO</t>
+          <t>JOSE MANUEL</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HENRIQUEZ</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PALMA</t>
+          <t>ABAD</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>CIENTISTA POLÍTICO</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JARA</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VALDERRAMA</t>
+          <t>MERINO</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SOCIÓLOGO</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3102,27 +3102,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OSVALDO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MARINAO</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>REYES</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3148,32 +3148,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MIKHAEL HANNA</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MARZUQA</t>
+          <t>BUVINIC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>BUTTO</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
+          <t>DIRECTOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>7184124,0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -3194,32 +3194,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RODRIGO</t>
+          <t>PATRICIO</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MLADINIC</t>
+          <t>BARRUECO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DRAGUICEVIC</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2470,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3240,32 +3240,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MONARDES</t>
+          <t>BANDA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VIGNOLO</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>ADMINISTRADOR PÚBLICO</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
+          <t>JEFE DEPARTAMENTO DE GESTION Y PLANIFICACION</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>4203252,0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3286,32 +3286,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>BANCHIERI</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BARRIA</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ASESOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3698771,0</t>
+          <t>2380,0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3332,32 +3332,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>GIORNA MARIA</t>
+          <t>MARIA CECILIA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>ARROYO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>ALBALA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>DIRECTORA DEPARTAMENTO ADMINISTRATIVO</t>
+          <t>JEFA SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6855238,0</t>
+          <t>4284209,0</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3378,32 +3378,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>JUAN MANUEL</t>
+          <t>ALICIA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>ALVAREZ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PIÑA</t>
+          <t>ESCOBAR</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
+          <t>CONTADOR GENERAL</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO DE TRANSPARENCIA MINREL</t>
+          <t>ASISTENTE SECCION TESORERIA</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1099573,0</t>
+          <t>1172827,0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3424,32 +3424,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PAULA XIMENA</t>
+          <t>FERNANDO JOSE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MORENO</t>
+          <t>ACUÑA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>BIOLOGO MARINO</t>
+          <t>MÉDICO VETERINARIO</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2342,0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t>ALICIA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OSSES</t>
+          <t>ALVAREZ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CAVERO</t>
+          <t>ESCOBAR</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>CONTADOR GENERAL</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
+          <t>ASISTENTE SECCION TESORERIA</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2244,0</t>
+          <t>1172827,0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -4390,32 +4390,32 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PAULA XIMENA</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MORENO</t>
+          <t>OSSES</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>CAVERO</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BIOLOGO MARINO</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2244,0</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4574,32 +4574,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FERNANDO JOSE</t>
+          <t>PAULA XIMENA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>MORENO</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>MÉDICO VETERINARIO</t>
+          <t>BIOLOGO MARINO</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2342,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4620,32 +4620,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ALICIA</t>
+          <t>JUAN MANUEL</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ALVAREZ</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ESCOBAR</t>
+          <t>PIÑA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>CONTADOR GENERAL</t>
+          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ASISTENTE SECCION TESORERIA</t>
+          <t>JEFE DEPARTAMENTO DE TRANSPARENCIA MINREL</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1172827,0</t>
+          <t>1099573,0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4666,32 +4666,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MARIA CECILIA</t>
+          <t>GIORNA MARIA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ARROYO</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ALBALA</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>JEFA SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
+          <t>DIRECTORA DEPARTAMENTO ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>4284209,0</t>
+          <t>6855238,0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4712,32 +4712,32 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BANCHIERI</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>BARRIA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
+          <t>ASESOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2380,0</t>
+          <t>3698771,0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4758,32 +4758,32 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BANDA</t>
+          <t>MONARDES</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>VIGNOLO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PÚBLICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO DE GESTION Y PLANIFICACION</t>
+          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>4203252,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4804,32 +4804,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PATRICIO</t>
+          <t>RODRIGO</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BARRUECO</t>
+          <t>MLADINIC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>DRAGUICEVIC</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2470,0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4850,32 +4850,32 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MIKHAEL HANNA</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>BUVINIC</t>
+          <t>MARZUQA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>BUTTO</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
+          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>7184124,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4896,27 +4896,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>OSVALDO</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>MARINAO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>CACERES</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>REYES</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4942,32 +4942,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>FERNANDO JOSE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>ACUÑA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MERINO</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>SOCIÓLOGO</t>
+          <t>MÉDICO VETERINARIO</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2342,0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -4988,32 +4988,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>JOSE MANUEL</t>
+          <t>MARIA ANTONIETA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CAMPOS</t>
+          <t>JARA</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ABAD</t>
+          <t>VALDERRAMA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CIENTISTA POLÍTICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -5034,32 +5034,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>FELIPE ALEJANDRO</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CAMPUSANO</t>
+          <t>HENRIQUEZ</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>PALMA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL EN MINAS</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
+          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2458,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -5080,32 +5080,32 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ALBERTO</t>
+          <t>HERNAN ALFONSO</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CAÑAS</t>
+          <t>GUTIERREZ</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>BERMEDO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ASISTENTE SUBDEPARTAMENTO ASIA Y OCEANIA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3053811,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -5126,32 +5126,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PATRICIO ANDRES</t>
+          <t>GUILLERMO</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CANIULAO</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>MONTECINOS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
+          <t>INGENIERO AGRÓNOMO</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
+          <t>JEFE SECCION PERSONAL RED EXTERNA</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2246,0</t>
+          <t>3249297,0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5172,32 +5172,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>LUIS HUMBERTO</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CARRASCO</t>
+          <t>GARCIA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>ARAYA</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>LICENCIA EDUCACION MEDIA</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
+          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2456,0</t>
+          <t>996,0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -5218,32 +5218,32 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>SACHA DALIBOR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CASES</t>
+          <t>GARAFULIC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>NARDOCCI</t>
+          <t>OLIVARES</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INFORMÁTICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2517,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -5264,32 +5264,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ROSA CRISTINA</t>
+          <t>FEDERICO ANDRES</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CAYUPI</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ALCA</t>
+          <t>VERGARA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>PROFESOR DE ALEMÁN Y BIBLIOTECARIO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>JEFA DE SECCION DE GESTION DOCUMENTAL</t>
+          <t>DIRECTOR DEPARTAMENTO JURIDICO</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3615824,0</t>
+          <t>6932680,0</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5310,32 +5310,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>MICHEL ORLANDO</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CERDA</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>LICENCIA EDUCACION MEDIA</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
+          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN MONTEVIDEO  URUGUAY</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2348,0</t>
+          <t>982,0</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5356,32 +5356,32 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ALEJANDRO SHARIFF</t>
+          <t>JUAN ROBERTO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CHACOFF</t>
+          <t>FIERRO</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>CEREÑO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>PROFESOR DE HISTORIA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
+          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>2688,0</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5402,17 +5402,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>IGNACIO</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CONTRERAS</t>
+          <t>FERNANDEZ</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>HUERTA</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EEUU</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2473,0</t>
+          <t>2383,0</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5448,32 +5448,32 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HUGO ALBERTO</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CORALES</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>COFRE</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
+          <t>JEFE DEPARTAMENTO OMC</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2306,0</t>
+          <t>4635953,0</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5494,17 +5494,17 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO</t>
+          <t>HECTOR</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>ECHEVERRIA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FINSTERBUSCH</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5514,12 +5514,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO PROPIEDAD INTELECTUAL</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2356671,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -5540,32 +5540,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>MARIELA VERONICA</t>
+          <t>MONICA CONSUELO</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ZAMORANO</t>
+          <t>PLAZA</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>COORDINADORA REGIONAL AREA DE INDUSTRIAS DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
+          <t>SECRETARIA DEPARTAMENTO DE ESTUDIOS</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>3223254,0</t>
+          <t>1065832,0</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5586,32 +5586,32 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>MONICA CONSUELO</t>
+          <t>MARIELA VERONICA</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>PLAZA</t>
+          <t>ZAMORANO</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>SECRETARIA DEPARTAMENTO DE ESTUDIOS</t>
+          <t>COORDINADORA REGIONAL AREA DE INDUSTRIAS DIRECCION REGIONAL METROPOLITANA CENTRO EXPORTADOR SANTIAGO</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1065832,0</t>
+          <t>3223254,0</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -5632,17 +5632,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>HECTOR</t>
+          <t>MARTIN ALEJANDRO</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ECHEVERRIA</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>FINSTERBUSCH</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE DEPARTAMENTO PROPIEDAD INTELECTUAL</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2356671,0</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5678,32 +5678,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>HUGO ALBERTO</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>CORALES</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>COFRE</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO OMC</t>
+          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>4635953,0</t>
+          <t>2306,0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5724,17 +5724,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>IGNACIO</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FERNANDEZ</t>
+          <t>CONTRERAS</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>HUERTA</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5744,12 +5744,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EEUU</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2383,0</t>
+          <t>2473,0</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5770,32 +5770,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>JUAN ROBERTO</t>
+          <t>ALEJANDRO SHARIFF</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FIERRO</t>
+          <t>CHACOFF</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CEREÑO</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2688,0</t>
+          <t>2378,0</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5816,32 +5816,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MICHEL ORLANDO</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>CERDA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>LICENCIA EDUCACION MEDIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN MONTEVIDEO  URUGUAY</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>982,0</t>
+          <t>2348,0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5862,32 +5862,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FEDERICO ANDRES</t>
+          <t>ROSA CRISTINA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>CAYUPI</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>VERGARA</t>
+          <t>ALCA</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>PROFESOR DE ALEMÁN Y BIBLIOTECARIO</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>DIRECTOR DEPARTAMENTO JURIDICO</t>
+          <t>JEFA DE SECCION DE GESTION DOCUMENTAL</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>6932680,0</t>
+          <t>3615824,0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -5908,32 +5908,32 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SACHA DALIBOR</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>GARAFULIC</t>
+          <t>CASES</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>OLIVARES</t>
+          <t>NARDOCCI</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INFORMÁTICO</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
+          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>2517,0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5954,32 +5954,32 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LUIS HUMBERTO</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GARCIA</t>
+          <t>CARRASCO</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ARAYA</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>LICENCIA EDUCACION MEDIA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>AUXILIAR DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>996,0</t>
+          <t>2456,0</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -6000,32 +6000,32 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>GUILLERMO</t>
+          <t>PATRICIO ANDRES</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>GARRIDO</t>
+          <t>CANIULAO</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MONTECINOS</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>INGENIERO AGRÓNOMO</t>
+          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>JEFE SECCION PERSONAL RED EXTERNA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>3249297,0</t>
+          <t>2246,0</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -6046,32 +6046,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HERNAN ALFONSO</t>
+          <t>ALBERTO</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>GUTIERREZ</t>
+          <t>CAÑAS</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>BERMEDO</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
+          <t>ASISTENTE SUBDEPARTAMENTO ASIA Y OCEANIA</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>3053811,0</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -6092,32 +6092,32 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FELIPE ALEJANDRO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>HENRIQUEZ</t>
+          <t>CAMPUSANO</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>PALMA</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL EN MINAS</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2378,0</t>
+          <t>2458,0</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -6138,32 +6138,32 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>JOSE MANUEL</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>JARA</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>VALDERRAMA</t>
+          <t>ABAD</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>CIENTISTA POLÍTICO</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2468,0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -6184,32 +6184,32 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>OSVALDO</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MARINAO</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>MERINO</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SOCIÓLOGO</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2468,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -6230,27 +6230,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MIKHAEL HANNA</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MARZUQA</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>BUTTO</t>
+          <t>REYES</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6276,32 +6276,32 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RODRIGO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MLADINIC</t>
+          <t>BUVINIC</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DRAGUICEVIC</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
+          <t>DIRECTOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2470,0</t>
+          <t>7184124,0</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -6322,27 +6322,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>PATRICIO</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MONARDES</t>
+          <t>BARRUECO</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>VIGNOLO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -6368,32 +6368,32 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>BANDA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>BARRIA</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>ADMINISTRADOR PÚBLICO</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>ASESOR DIRECCION DE PROMOCION DE EXPORTACIONES</t>
+          <t>JEFE DEPARTAMENTO DE GESTION Y PLANIFICACION</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>3698771,0</t>
+          <t>4203252,0</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -6414,17 +6414,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>GIORNA MARIA</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>BANCHIERI</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>DIRECTORA DEPARTAMENTO ADMINISTRATIVO</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>6855238,0</t>
+          <t>2380,0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6460,32 +6460,32 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>JUAN MANUEL</t>
+          <t>MARIA CECILIA</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>ARROYO</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>PIÑA</t>
+          <t>ALBALA</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO DE TRANSPARENCIA MINREL</t>
+          <t>JEFA SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1099573,0</t>
+          <t>4284209,0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6506,32 +6506,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>JUAN EULISES</t>
+          <t>NANCY</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>VILLARROEL</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
+          <t>SECRETARIA DEL SUBDEPARTAMENTO DE EUROPA Y AFRICA</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>892085,0</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6552,17 +6552,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ROBERTO</t>
+          <t>CAROLINA PAZ</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PAIVA</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>REINERO</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6598,32 +6598,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO</t>
+          <t>GEMITA</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PARRAGUEZ</t>
+          <t>VARAS</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>BRAVO</t>
+          <t>AVILA</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PÚBLICO</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
+          <t>SECRETARIA DEL SUBDEPARTAMENTO DE FINANZAS</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2207,0</t>
+          <t>926849,0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6644,32 +6644,32 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>MATILDE</t>
+          <t>PABLO ANDRES</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>POZO</t>
+          <t>URRIA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CHIRINO</t>
+          <t>HERING</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>COORDINADOR DEL SUBDEPARTAMENTO DE CE RM</t>
+          <t>DIRECTOR DIRECCIÓN BILATERAL</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2511011,0</t>
+          <t>6792286,0</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6690,32 +6690,32 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>TRINCADO</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>HERMOSILLA</t>
+          <t>CLAVERO</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEPARTAMENTO DE CE VALPARAÍSO</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2944247,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6736,32 +6736,32 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>JUAN CARLOS</t>
+          <t>DIEGO JOSE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>TORRES</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>DIEZ</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>CIENTISTA POLITICO</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL DEPARTAMENTO CERTIFICACIÓN DE ORIGEN</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2656581,0</t>
+          <t>2448,0</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6782,32 +6782,32 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>EVELYN PATRICIA</t>
+          <t>ROSSANA</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>RAKOS</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>DONOSO</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
+          <t>ASISTENTE DEL SUBDEPARTAMENTO DE INFORMACION COMERCIAL DEL DEPARTAMENTO ESTUDIOS</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2442,0</t>
+          <t>918157,0</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6828,32 +6828,32 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>MARIA JULIA</t>
+          <t>LORENA</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>RIQUELME</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ALVEAR</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
+          <t>DIRECTOR REGIONAL DE CE RM</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2210,0</t>
+          <t>3726825,0</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -6920,32 +6920,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LORENA</t>
+          <t>MARIA JULIA</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>RIQUELME</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>ALVEAR</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>DIRECTOR REGIONAL DE CE RM</t>
+          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>3726825,0</t>
+          <t>2210,0</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -6966,32 +6966,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ROSSANA</t>
+          <t>EVELYN PATRICIA</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>RAKOS</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>DONOSO</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEPARTAMENTO DE INFORMACION COMERCIAL DEL DEPARTAMENTO ESTUDIOS</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>918157,0</t>
+          <t>2442,0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -7012,32 +7012,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>DIEGO JOSE</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TORRES</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>DIEZ</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>CIENTISTA POLITICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
+          <t>ASISTENTE DEL DEPARTAMENTO CERTIFICACIÓN DE ORIGEN</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2448,0</t>
+          <t>2656581,0</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -7058,32 +7058,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRINCADO</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>CLAVERO</t>
+          <t>HERMOSILLA</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>ASISTENTE DEL SUBDEPARTAMENTO DE CE VALPARAÍSO</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2944247,0</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -7104,32 +7104,32 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PABLO ANDRES</t>
+          <t>MATILDE</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>URRIA</t>
+          <t>POZO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>HERING</t>
+          <t>CHIRINO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN BILATERAL</t>
+          <t>COORDINADOR DEL SUBDEPARTAMENTO DE CE RM</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>6792286,0</t>
+          <t>2511011,0</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -7150,32 +7150,32 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>GEMITA</t>
+          <t>CARLOS PATRICIO</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>VARAS</t>
+          <t>PARRAGUEZ</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>AVILA</t>
+          <t>BRAVO</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>ADMINISTRADOR PÚBLICO</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL SUBDEPARTAMENTO DE FINANZAS</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>926849,0</t>
+          <t>2207,0</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -7196,17 +7196,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CAROLINA PAZ</t>
+          <t>ROBERTO</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>PAIVA</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>REINERO</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7242,32 +7242,32 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>NANCY</t>
+          <t>JUAN EULISES</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>VILLARROEL</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL SUBDEPARTAMENTO DE EUROPA Y AFRICA</t>
+          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>892085,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -7288,32 +7288,32 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>FERNANDO JOSE</t>
+          <t>MARCELA ANGELICA</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>OTERO</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>MÉDICO VETERINARIO</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
+          <t>DIRECTORA DIRECCIÓN MULTILATERAL</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2363,0</t>
+          <t>6650804,0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -7334,32 +7334,32 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>MARIA CECILIA</t>
+          <t>PAULINA</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ARROYO</t>
+          <t>NAZAL</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ALBALA</t>
+          <t>ARANDA</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>JEFE SUBDEPARTAMENTO DEL SUBDEPARTAMENTO DE DERECHO INTERNACIONAL</t>
+          <t>DIRECTORA  GENERAL</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>3656038,0</t>
+          <t>6624552,0</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -7380,32 +7380,32 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>CARMEN</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BANCHIERI</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>CUEVAS</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
+          <t>TELEFONISTA SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2444,0</t>
+          <t>848629,0</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -7426,32 +7426,32 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BANDA</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>ARAYA</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PUBLICO</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
+          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>3665084,0</t>
+          <t>3717140,0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -7472,32 +7472,32 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PATRICIO</t>
+          <t>PAULA XIMENA</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>BARRUECO</t>
+          <t>MORENO</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
+          <t>BIOLOGO MARINO</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2558,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7518,32 +7518,32 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JUAN MANUEL</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>BUVINIC</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>PIÑA</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN PROCHILE</t>
+          <t>PROFESIONAL  FUNCIONARIO DIRECON EN COMISION DE SERVICIOS EN MINREL</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>6933768,0</t>
+          <t>873344,0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7564,32 +7564,32 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>GIORNA MARIA</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>REYES</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
+          <t>DIRECTOR DIRECCIÓN ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2374,0</t>
+          <t>6472685,0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -7610,32 +7610,32 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>MERINO</t>
+          <t>BARRIA</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>ASESOR DIRECCIÓN PROCHILE</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3057126,0</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -7656,27 +7656,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>JOSE MANUEL</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CAMPOS</t>
+          <t>MONARDES</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ABAD</t>
+          <t>VIGNOLO</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>CIENTISTA POLÍTICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7702,32 +7702,32 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>RODRIGO</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CAMPUSANO</t>
+          <t>MLADINIC</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>DRAGUICEVIC</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL EN MINAS</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2532,0</t>
+          <t>2546,0</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -7748,32 +7748,32 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ALBERTO</t>
+          <t>MIKHAEL HANNA</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CAÑAS</t>
+          <t>MARZUQA</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>BUTTO</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEPARTAMENTO DE ASIA Y OCEANIA DEL DEPARTAMENTO</t>
+          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2523603,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -7794,32 +7794,32 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PATRICIO ANDRES</t>
+          <t>OSVALDO</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CANIULAO</t>
+          <t>MARINAO</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2546,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -7840,32 +7840,32 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>MARIA ANTONIETA</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CASES</t>
+          <t>JARA</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>NARDOCCI</t>
+          <t>VALDERRAMA</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INFORMÁTICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2546,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -7886,32 +7886,32 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ROSA CRISTINA</t>
+          <t>FELIPE ALEJANDRO</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CAYUPI</t>
+          <t>HENRIQUEZ</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ALCA</t>
+          <t>PALMA</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>BIBLIOTECARIA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEPARTAMENTO DE OPERACIONES</t>
+          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2984291,0</t>
+          <t>2442,0</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -7932,17 +7932,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>HERNAN ALFONSO</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CERDA</t>
+          <t>GUTIERREZ</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>BERMEDO</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2370,0</t>
+          <t>2442,0</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -7978,32 +7978,32 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ALEJANDRO SHARIFF</t>
+          <t>GUILLERMO</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CHACOFF</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>MONTECINOS</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
+          <t>JEFE SECCIÓN PERSONAL DEL SUBDEPARTAMENTO DE RED EXTERNA</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2442,0</t>
+          <t>2696625,0</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -8024,17 +8024,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>HUGO ALBERTO</t>
+          <t>SACHA DALIBOR</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CORALES</t>
+          <t>GARAFULIC</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>COFRE</t>
+          <t>OLIVARES</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2361,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -8070,17 +8070,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO</t>
+          <t>FEDERICO ANDRES</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>FINSTERBUSCH</t>
+          <t>VERGARA</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8090,12 +8090,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>DIRECTOR DIRECCIÓN JURIDICO</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2363,0</t>
+          <t>6527299,0</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -8116,32 +8116,32 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>MARIELA VERONICA</t>
+          <t>JUAN ROBERTO</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>FIERRO</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ZAMORANO</t>
+          <t>CEREÑO</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>PROFESOR DE HISTORIA</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>COODINADORA INDUSTRIAS DEL SUBDEPARTAMENTO DE CE RM</t>
+          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2656581,0</t>
+          <t>2752,0</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -8162,32 +8162,32 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>MONICA CONSUELO</t>
+          <t>IGNACIO</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>FERNANDEZ</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>PLAZA</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>848629,0</t>
+          <t>2448,0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>HECTOR</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ECHEVERRIA</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE DEPARTAMENTO OMC</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>4104598,0</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -8254,17 +8254,17 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>HECTOR</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>ECHEVERRIA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8274,12 +8274,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO OMC</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>4104598,0</t>
+          <t>2543,0</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -8300,32 +8300,32 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>IGNACIO</t>
+          <t>MONICA CONSUELO</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>FERNANDEZ</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>PLAZA</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
+          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2448,0</t>
+          <t>848629,0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -8346,32 +8346,32 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>JUAN ROBERTO</t>
+          <t>MARIELA VERONICA</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>FIERRO</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CEREÑO</t>
+          <t>ZAMORANO</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
+          <t>COODINADORA INDUSTRIAS DEL SUBDEPARTAMENTO DE CE RM</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2752,0</t>
+          <t>2656581,0</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -8392,17 +8392,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>FEDERICO ANDRES</t>
+          <t>MARTIN ALEJANDRO</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>VERGARA</t>
+          <t>FINSTERBUSCH</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8412,12 +8412,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN JURIDICO</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>6527299,0</t>
+          <t>2363,0</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -8438,17 +8438,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SACHA DALIBOR</t>
+          <t>HUGO ALBERTO</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>GARAFULIC</t>
+          <t>CORALES</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>OLIVARES</t>
+          <t>COFRE</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -8458,12 +8458,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
+          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>2361,0</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -8484,32 +8484,32 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>GUILLERMO</t>
+          <t>ALEJANDRO SHARIFF</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>GARRIDO</t>
+          <t>CHACOFF</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>MONTECINOS</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>JEFE SECCIÓN PERSONAL DEL SUBDEPARTAMENTO DE RED EXTERNA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2696625,0</t>
+          <t>2442,0</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -8530,17 +8530,17 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HERNAN ALFONSO</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>GUTIERREZ</t>
+          <t>CERDA</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>BERMEDO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -8550,12 +8550,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2442,0</t>
+          <t>2370,0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -8576,32 +8576,32 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>FELIPE ALEJANDRO</t>
+          <t>ROSA CRISTINA</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>HENRIQUEZ</t>
+          <t>CAYUPI</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>PALMA</t>
+          <t>ALCA</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>BIBLIOTECARIA</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
+          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEPARTAMENTO DE OPERACIONES</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2442,0</t>
+          <t>2984291,0</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -8622,32 +8622,32 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>JARA</t>
+          <t>CASES</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>VALDERRAMA</t>
+          <t>NARDOCCI</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INFORMÁTICO</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2546,0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -8668,32 +8668,32 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>OSVALDO</t>
+          <t>PATRICIO ANDRES</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>MARINAO</t>
+          <t>CANIULAO</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>2546,0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -8714,32 +8714,32 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>MIKHAEL HANNA</t>
+          <t>ALBERTO</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>MARZUQA</t>
+          <t>CAÑAS</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>BUTTO</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
+          <t>ASISTENTE DEL SUBDEPARTAMENTO DE ASIA Y OCEANIA DEL DEPARTAMENTO</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>2523603,0</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -8760,32 +8760,32 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RODRIGO</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>MLADINIC</t>
+          <t>CAMPUSANO</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>DRAGUICEVIC</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL EN MINAS</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2546,0</t>
+          <t>2532,0</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -8806,27 +8806,27 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>JOSE MANUEL</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>MONARDES</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>VIGNOLO</t>
+          <t>ABAD</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>CIENTISTA POLÍTICO</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -8852,32 +8852,32 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>BARRIA</t>
+          <t>MERINO</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>ASESOR DIRECCIÓN PROCHILE</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>3057126,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -8898,32 +8898,32 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>GIORNA MARIA</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>REYES</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN ADMINISTRATIVO</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>6472685,0</t>
+          <t>2374,0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -8944,32 +8944,32 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>JUAN MANUEL</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>BUVINIC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>PIÑA</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>PROFESIONAL  FUNCIONARIO DIRECON EN COMISION DE SERVICIOS EN MINREL</t>
+          <t>DIRECTOR DIRECCIÓN PROCHILE</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>873344,0</t>
+          <t>6933768,0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -8990,32 +8990,32 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PAULA XIMENA</t>
+          <t>PATRICIO</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>MORENO</t>
+          <t>BARRUECO</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>BIOLOGO MARINO</t>
+          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2543,0</t>
+          <t>2558,0</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -9036,32 +9036,32 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>BANDA</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ARAYA</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>ADMINISTRADOR PUBLICO</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
+          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>3717140,0</t>
+          <t>3665084,0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -9082,32 +9082,32 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>BANCHIERI</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>CUEVAS</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>TELEFONISTA SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>848629,0</t>
+          <t>2444,0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr"/>
@@ -9128,32 +9128,32 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PAULINA</t>
+          <t>MARIA CECILIA</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>NAZAL</t>
+          <t>ARROYO</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ARANDA</t>
+          <t>ALBALA</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>DIRECTORA  GENERAL</t>
+          <t>JEFE SUBDEPARTAMENTO DEL SUBDEPARTAMENTO DE DERECHO INTERNACIONAL</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>6624552,0</t>
+          <t>3656038,0</t>
         </is>
       </c>
       <c r="J191" t="inlineStr"/>
@@ -9174,32 +9174,32 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>MARCELA ANGELICA</t>
+          <t>FERNANDO JOSE</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>OTERO</t>
+          <t>ACUÑA</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>MÉDICO VETERINARIO</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>DIRECTORA DIRECCIÓN MULTILATERAL</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO EN CONSULADO GENERAL EN TORONTO</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>6650804,0</t>
+          <t>2363,0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr"/>
@@ -9220,32 +9220,32 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>FERNANDO JOSE</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>ACUÑA</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>RAMIREZ</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>MÉDICO VETERINARIO</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO OMC</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO EN CONSULADO GENERAL EN TORONTO CANADA</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2052300,0</t>
+          <t>2366,0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -11106,17 +11106,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>HECTOR</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ECHEVERRIA</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE DEPARTAMENTO OMC</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2052300,0</t>
         </is>
       </c>
       <c r="J234" t="inlineStr"/>
@@ -11152,32 +11152,32 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>MONICA CONSUELO</t>
+          <t>HECTOR</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>ECHEVERRIA</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>PLAZA</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>848629,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J235" t="inlineStr"/>
@@ -11198,32 +11198,32 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>MARIELA VERONICA</t>
+          <t>MONICA CONSUELO</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>ZAMORANO</t>
+          <t>PLAZA</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>COODINADORA INDUSTRIAS DEL CE RM</t>
+          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2669929,0</t>
+          <t>848629,0</t>
         </is>
       </c>
       <c r="J236" t="inlineStr"/>
@@ -11244,32 +11244,32 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO</t>
+          <t>MARIELA VERONICA</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>FINSTERBUSCH</t>
+          <t>ZAMORANO</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN OMC</t>
+          <t>COODINADORA INDUSTRIAS DEL CE RM</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2366,0</t>
+          <t>2669929,0</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -11290,32 +11290,32 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>MIGUEL ANGEL</t>
+          <t>MARTIN ALEJANDRO</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>FINSTERBUSCH</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>SIN PROFESIÓN</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>AUXILIAR EN OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN OMC</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>504,0</t>
+          <t>2366,0</t>
         </is>
       </c>
       <c r="J238" t="inlineStr"/>
@@ -11382,32 +11382,32 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>HUGO ALBERTO</t>
+          <t>MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CORALES</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>COFRE</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SIN PROFESIÓN</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL BOGOTÁ COLOMBIA</t>
+          <t>AUXILIAR EN OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2364,0</t>
+          <t>504,0</t>
         </is>
       </c>
       <c r="J240" t="inlineStr"/>
@@ -11428,17 +11428,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ALEJANDRO SHARIFF</t>
+          <t>HUGO ALBERTO</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CHACOFF</t>
+          <t>CORALES</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>COFRE</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -11448,12 +11448,12 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
+          <t>JEFE OFICINA COMERCIAL BOGOTÁ COLOMBIA</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2364,0</t>
         </is>
       </c>
       <c r="J241" t="inlineStr"/>
@@ -11474,17 +11474,17 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>ALEJANDRO SHARIFF</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CERDA</t>
+          <t>CHACOFF</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -11494,12 +11494,12 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MÉXICO MÉXICO</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2373,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J242" t="inlineStr"/>
@@ -11520,32 +11520,32 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ROSA CRISTINA</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CAYUPI</t>
+          <t>CERDA</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>ALCA</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>BIBLIOTECARIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEP OPERACIONES</t>
+          <t>JEFA DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MÉXICO MÉXICO</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2984291,0</t>
+          <t>2373,0</t>
         </is>
       </c>
       <c r="J243" t="inlineStr"/>
@@ -11566,32 +11566,32 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>ROSA CRISTINA</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CASES</t>
+          <t>CAYUPI</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>NARDOCCI</t>
+          <t>ALCA</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INFORMÁTICO</t>
+          <t>BIBLIOTECARIA</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>REPRESENTACIÓN ECONÓMICA EN TAIPEI</t>
+          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEP OPERACIONES</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2984291,0</t>
         </is>
       </c>
       <c r="J244" t="inlineStr"/>
@@ -11612,32 +11612,32 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CARRASCO</t>
+          <t>CASES</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>NARDOCCI</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL INFORMÁTICO</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
+          <t>REPRESENTACIÓN ECONÓMICA EN TAIPEI</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2534,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J245" t="inlineStr"/>
@@ -11658,32 +11658,32 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>PATRICIO ANDRES</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CANIULAO</t>
+          <t>CARRASCO</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2534,0</t>
         </is>
       </c>
       <c r="J246" t="inlineStr"/>
@@ -11704,32 +11704,32 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ALBERTO</t>
+          <t>PATRICIO ANDRES</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CAÑAS</t>
+          <t>CANIULAO</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEP ASIA Y OCEANIA DEL DEPTO SUBDIR INTERNAC</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2523603,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J247" t="inlineStr"/>
@@ -11750,32 +11750,32 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ALBERTO</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>CAMPUSANO</t>
+          <t>CAÑAS</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL EN MINAS</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
+          <t>ASISTENTE DEL SUBDEP ASIA Y OCEANIA DEL DEPTO SUBDIR INTERNAC</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>2536,0</t>
+          <t>2523603,0</t>
         </is>
       </c>
       <c r="J248" t="inlineStr"/>
@@ -11796,32 +11796,32 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>JOSE MANUEL</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CAMPOS</t>
+          <t>CAMPUSANO</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>ABAD</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>CIENTISTA POLÍTICO</t>
+          <t>INGENIERO CIVIL EN MINAS</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN OMC</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2536,0</t>
         </is>
       </c>
       <c r="J249" t="inlineStr"/>
@@ -11842,32 +11842,32 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>JOSE MANUEL</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>MERINO</t>
+          <t>ABAD</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>CIENTISTA POLÍTICO</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN OMC</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J250" t="inlineStr"/>
@@ -11888,32 +11888,32 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>REYES</t>
+          <t>MERINO</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J251" t="inlineStr"/>
@@ -11934,32 +11934,32 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>BUVINIC</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>REYES</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN PROCHILE</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>6933768,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J252" t="inlineStr"/>
@@ -11980,32 +11980,32 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>PATRICIO</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>BARRUECO</t>
+          <t>BUVINIC</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
+          <t>DIRECTOR DIRECCIÓN PROCHILE</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2565,0</t>
+          <t>6933768,0</t>
         </is>
       </c>
       <c r="J253" t="inlineStr"/>
@@ -12026,32 +12026,32 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>PATRICIO</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>BANDA</t>
+          <t>BARRUECO</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PUBLICO</t>
+          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>3665084,0</t>
+          <t>2565,0</t>
         </is>
       </c>
       <c r="J254" t="inlineStr"/>
@@ -12072,32 +12072,32 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>BANCHIERI</t>
+          <t>BANDA</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ADMINISTRADOR PUBLICO</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
+          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2447,0</t>
+          <t>3665084,0</t>
         </is>
       </c>
       <c r="J255" t="inlineStr"/>
@@ -12118,32 +12118,32 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>FERNANDO JOSE</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>BANCHIERI</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>RAMIREZ</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>MÉDICO VETERINARIO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO EN CONSULADO GENERAL EN TORONTO CANADA</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2366,0</t>
+          <t>2447,0</t>
         </is>
       </c>
       <c r="J256" t="inlineStr"/>
@@ -12164,32 +12164,32 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>PABLO ANDRES</t>
+          <t>GUILLERMO</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>URRIA</t>
+          <t>GARRIDO</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>HERING</t>
+          <t>MONTECINOS</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>DIRECTOR ASUNTOS ECONÓMICOS BILATERALES</t>
+          <t>JEFE SECCIÓN PERSONAL DEL SUBDEPARTAMENTO DE RED EXTERNA</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>7585216,0</t>
+          <t>3343879,0</t>
         </is>
       </c>
       <c r="J257" t="inlineStr"/>
@@ -12210,32 +12210,32 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>MAURICIO</t>
+          <t>RODRIGO ALEJANDRO</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>BANCHIERI</t>
+          <t>YAÑEZ</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>CARTER</t>
+          <t>BENITEZ</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
+          <t>DIRECTOR GENERAL DE RELACIONES ECONÓMICAS INTERNACIONALES</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>2447,0</t>
+          <t>5448256,0</t>
         </is>
       </c>
       <c r="J258" t="inlineStr"/>
@@ -12256,32 +12256,32 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>MARIA CECILIA</t>
+          <t>NANCY</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ARROYO</t>
+          <t>VILLARROEL</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>ALBALA</t>
+          <t>ROJAS</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>JEFE SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
+          <t>SECRETARIA DEL SUBDEPARTAMENTO DE EUROPA Y AFRICA</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>4391318,0</t>
+          <t>1144625,0</t>
         </is>
       </c>
       <c r="J259" t="inlineStr"/>
@@ -12302,32 +12302,32 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>CAROLINA PAZ</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>BANDA</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>MALDONADO</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PUBLICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>4312338,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -12348,32 +12348,32 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>PATRICIO</t>
+          <t>GEMITA</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>BARRUECO</t>
+          <t>VARAS</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>AVILA</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
+          <t>SECRETARIA DEL SUBDEPARTAMENTO DE FINANZAS</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2565,0</t>
+          <t>1179389,0</t>
         </is>
       </c>
       <c r="J261" t="inlineStr"/>
@@ -12394,17 +12394,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>PABLO ANDRES</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>BUVINIC</t>
+          <t>URRIA</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>HERING</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -12414,12 +12414,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>DIRECTOR DIRECCIÓN DE PROMOCIÓN DE EXPORTACIONES</t>
+          <t>DIRECTOR ASUNTOS ECONÓMICOS BILATERALES</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>7712550,0</t>
+          <t>7585216,0</t>
         </is>
       </c>
       <c r="J262" t="inlineStr"/>
@@ -12440,32 +12440,32 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>JORGE</t>
+          <t>PATRICIA</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>TRINCADO</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>REYES</t>
+          <t>CLAVERO</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J263" t="inlineStr"/>
@@ -12486,32 +12486,32 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>HUGO</t>
+          <t>ROXANA</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CALDERON</t>
+          <t>TORRES</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>MERINO</t>
+          <t>OTEIZA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>SOCIOLOGO</t>
+          <t>ING. EJEC. COMERCIO EXTERIOR</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ECUADOR</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1392,0</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
@@ -12532,32 +12532,32 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>JOSE MANUEL</t>
+          <t>DIEGO JOSE</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>CAMPOS</t>
+          <t>TORRES</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>ABAD</t>
+          <t>DIEZ</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CIENTISTA POLÍTICO</t>
+          <t>CIENTISTA POLITICO</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2452,0</t>
         </is>
       </c>
       <c r="J265" t="inlineStr"/>
@@ -12578,32 +12578,32 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>JOSE</t>
+          <t>ROSSANA</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CAMPUSANO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>ALARCON</t>
+          <t>TAPIA</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL EN MINAS</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
+          <t>ASISTENTE DEL SUBDEPARTAMENTO DE INFORMACION COMERCIAL DEL DEPARTAMENTO ESTUDIOS</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2536,0</t>
+          <t>1170697,0</t>
         </is>
       </c>
       <c r="J266" t="inlineStr"/>
@@ -12624,32 +12624,32 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>ALBERTO</t>
+          <t>LORENA</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CAÑAS</t>
+          <t>SEPULVEDA</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>VILLA</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEPARTAMENTO DE ASIA Y OCEANIA</t>
+          <t>DIRECTOR REGIONAL CE REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>3130156,0</t>
+          <t>4359695,0</t>
         </is>
       </c>
       <c r="J267" t="inlineStr"/>
@@ -12670,32 +12670,32 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>PATRICIO ANDRES</t>
+          <t>LORENA ANDREA</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CANIULAO</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>PINO</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LA PAZ BOLIVIA</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2364,0</t>
         </is>
       </c>
       <c r="J268" t="inlineStr"/>
@@ -12716,32 +12716,32 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>ENRIQUE</t>
+          <t>MARIA JULIA</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CARRASCO</t>
+          <t>RIQUELME</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>ALVEAR</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
+          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2534,0</t>
+          <t>2213,0</t>
         </is>
       </c>
       <c r="J269" t="inlineStr"/>
@@ -12762,32 +12762,32 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>AGUSTIN</t>
+          <t>EVELYN PATRICIA</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CASES</t>
+          <t>RAKOS</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>NARDOCCI</t>
+          <t>DONOSO</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INFORMÁTICO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2445,0</t>
         </is>
       </c>
       <c r="J270" t="inlineStr"/>
@@ -12808,32 +12808,32 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>ROSA CRISTINA</t>
+          <t>VERONICA DE LOURDES</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CAYUPI</t>
+          <t>PULGAR</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>ALCA</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>BIBLIOTECARIA</t>
+          <t>SECRETARIA</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEPARTAMENTO DE OPERACIONES</t>
+          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>3719571,0</t>
+          <t>1245,0</t>
         </is>
       </c>
       <c r="J271" t="inlineStr"/>
@@ -12854,17 +12854,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>CARMEN GLORIA</t>
+          <t>JUAN CARLOS</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CERDA</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>CASTILLO</t>
+          <t>SANCHEZ</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -12874,12 +12874,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
+          <t>ASISTENTE DEL DEPARTAMENTO CERTIFICACIÓN DE ORIGEN</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2373,0</t>
+          <t>3303835,0</t>
         </is>
       </c>
       <c r="J272" t="inlineStr"/>
@@ -12900,32 +12900,32 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>ALEJANDRO SHARIFF</t>
+          <t>JOSE ANDRES</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CHACOFF</t>
+          <t>PRADO</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>PEREZ</t>
+          <t>HERMOSILLA</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
+          <t>ASISTENTE  CE VALPARAÍSO</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>3679527,0</t>
         </is>
       </c>
       <c r="J273" t="inlineStr"/>
@@ -12946,32 +12946,32 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>HUGO ALBERTO</t>
+          <t>MATILDE</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>CORALES</t>
+          <t>POZO</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>COFRE</t>
+          <t>CHIRINO</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
+          <t>COORDINADOR AREA SERVICIOS CE REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2363,0</t>
+          <t>3117564,0</t>
         </is>
       </c>
       <c r="J274" t="inlineStr"/>
@@ -12992,32 +12992,32 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>MIGUEL ANGEL</t>
+          <t>CARLOS PATRICIO</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>PARRAGUEZ</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>BRAVO</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>SIN PROFESIÓN</t>
+          <t>ADMINISTRADOR PUBLICO</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>AUXILIAR EN LA OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>6487,0</t>
+          <t>2209,0</t>
         </is>
       </c>
       <c r="J275" t="inlineStr"/>
@@ -13038,32 +13038,32 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>MIGUEL ANGEL</t>
+          <t>ROBERTO</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>PAIVA</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>REINERO</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>SIN PROFESIÓN</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>AUXILIAR EN LA OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1008,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J276" t="inlineStr"/>
@@ -13084,32 +13084,32 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>MIGUEL ANGEL</t>
+          <t>JUAN EULISES</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CORDOVA</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>PAEZ</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>SIN PROFESIÓN</t>
+          <t>PERIODISTA</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>ASISTENTE SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
+          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>260127,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J277" t="inlineStr"/>
@@ -13130,32 +13130,32 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RODRIGO ALEJANDRO</t>
+          <t>MARCELA ANGELICA</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>YAÑEZ</t>
+          <t>OTERO</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>BENITEZ</t>
+          <t>FUENTES</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>DIRECTOR GENERAL DE RELACIONES ECONÓMICAS INTERNACIONALES</t>
+          <t>DIRECTORA DIRECCIÓN ASUNTOS ECONÓMICOS MULTILATERALES</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>5448256,0</t>
+          <t>7429586,0</t>
         </is>
       </c>
       <c r="J278" t="inlineStr"/>
@@ -13176,32 +13176,32 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>NANCY</t>
+          <t>DIEGO</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>VILLARROEL</t>
+          <t>OSSES</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>ROJAS</t>
+          <t>CAVERO</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>INGENIERO AGRONOMO</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL SUBDEPARTAMENTO DE EUROPA Y AFRICA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1144625,0</t>
+          <t>2294,0</t>
         </is>
       </c>
       <c r="J279" t="inlineStr"/>
@@ -13222,17 +13222,17 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>CAROLINA PAZ</t>
+          <t>PAULINA</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>NAZAL</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>MUÑOZ</t>
+          <t>ARANDA</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -13242,12 +13242,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN INDIA</t>
+          <t>DIRECTORA  GENERAL DE RELACIONES ECONÓMICAS INTERNACIONALES</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2208184,0</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -13268,32 +13268,32 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>GEMITA</t>
+          <t>CARMEN</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>VARAS</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>AVILA</t>
+          <t>CUEVAS</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>SECRETARIA ADMINISTRATIVA</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL SUBDEPARTAMENTO DE FINANZAS</t>
+          <t>TELEFONISTA SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1179389,0</t>
+          <t>1101169,0</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -13314,32 +13314,32 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>PATRICIA</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRINCADO</t>
+          <t>MOYA</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>CLAVERO</t>
+          <t>ARAYA</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4364394,0</t>
         </is>
       </c>
       <c r="J282" t="inlineStr"/>
@@ -13360,32 +13360,32 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>ROXANA</t>
+          <t>PAULA XIMENA</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TORRES</t>
+          <t>MORENO</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>OTEIZA</t>
+          <t>SILVA</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>ING. EJEC. COMERCIO EXTERIOR</t>
+          <t>BIOLOGO MARINO</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ECUADOR</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1392,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J283" t="inlineStr"/>
@@ -13406,32 +13406,32 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>DIEGO JOSE</t>
+          <t>JUAN MANUEL</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>TORRES</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>DIEZ</t>
+          <t>PIÑA</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>CIENTISTA POLITICO</t>
+          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ALEMANIA</t>
+          <t>PROFESIONAL DIRECCIÓN GENERAL</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>2452,0</t>
+          <t>1127063,0</t>
         </is>
       </c>
       <c r="J284" t="inlineStr"/>
@@ -13452,32 +13452,32 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>ROSSANA</t>
+          <t>GIORNA MARIA</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>TAPIA</t>
+          <t>CRUZ</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL SUBDEPARTAMENTO DE INFORMACION COMERCIAL DEL DEPARTAMENTO ESTUDIOS</t>
+          <t>DIRECTOR DEPRATAMENTO ADMINISTRATIVO</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1170697,0</t>
+          <t>7251467,0</t>
         </is>
       </c>
       <c r="J285" t="inlineStr"/>
@@ -13498,32 +13498,32 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>LORENA</t>
+          <t>FERNANDO</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>SEPULVEDA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>VILLA</t>
+          <t>BARRIA</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>DIRECTOR REGIONAL CE REGIÓN METROPOLITANA</t>
+          <t>ASESOR DIRECCIÓN DE PROMOCIÓN DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>4359695,0</t>
+          <t>3792406,0</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -13544,32 +13544,32 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>LORENA ANDREA</t>
+          <t>RODRIGO ANDRES</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>MONARDES</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>PINO</t>
+          <t>VIGNOLO</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>JEFA DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LA PAZ BOLIVIA</t>
+          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>2364,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J287" t="inlineStr"/>
@@ -13590,32 +13590,32 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>MARIA JULIA</t>
+          <t>RODRIGO</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>RIQUELME</t>
+          <t>MLADINIC</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>ALVEAR</t>
+          <t>DRAGUICEVIC</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>PUBLICISTA CM CREACION GRAFICA Y AUDIOVISUAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>JEFE DE LA OFICINA COMERCIAL DE CHILE EN SAO PAULOBRASIL</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>2213,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J288" t="inlineStr"/>
@@ -13636,32 +13636,32 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>EVELYN PATRICIA</t>
+          <t>MIKHAEL HANNA</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>RAKOS</t>
+          <t>MARZUQA</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>DONOSO</t>
+          <t>BUTTO</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL DE CHILE EN ESTOCOLMO SUECIA</t>
+          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2445,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J289" t="inlineStr"/>
@@ -13682,32 +13682,32 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>VERONICA DE LOURDES</t>
+          <t>OSVALDO</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>PULGAR</t>
+          <t>MARINAO</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>SECRETARIA</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>SECRETARIA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1245,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J290" t="inlineStr"/>
@@ -13728,17 +13728,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>JUAN CARLOS</t>
+          <t>MARIA ANTONIETA</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>JARA</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>SANCHEZ</t>
+          <t>VALDERRAMA</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>ASISTENTE DEL DEPARTAMENTO CERTIFICACIÓN DE ORIGEN</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>3303835,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J291" t="inlineStr"/>
@@ -13774,32 +13774,32 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>JOSE ANDRES</t>
+          <t>FELIPE ALEJANDRO</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>PRADO</t>
+          <t>HENRIQUEZ</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>HERMOSILLA</t>
+          <t>PALMA</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>ASISTENTE  CE VALPARAÍSO</t>
+          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>3679527,0</t>
+          <t>2445,0</t>
         </is>
       </c>
       <c r="J292" t="inlineStr"/>
@@ -13820,32 +13820,32 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>MATILDE</t>
+          <t>HERNAN ALFONSO</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>POZO</t>
+          <t>GUTIERREZ</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>CHIRINO</t>
+          <t>BERMEDO</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>COORDINADOR AREA SERVICIOS CE REGIÓN METROPOLITANA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>3117564,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J293" t="inlineStr"/>
@@ -13866,32 +13866,32 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>CARLOS PATRICIO</t>
+          <t>SACHA DALIBOR</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>PARRAGUEZ</t>
+          <t>GARAFULIC</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>BRAVO</t>
+          <t>OLIVARES</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>ADMINISTRADOR PUBLICO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  COREA</t>
+          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>2209,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J294" t="inlineStr"/>
@@ -13912,32 +13912,32 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>ROBERTO</t>
+          <t>FEDERICO ANDRES</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>PAIVA</t>
+          <t>GAJARDO</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>REINERO</t>
+          <t>VERGARA</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN ESPAÑA</t>
+          <t>DIRECTOR DEPARTAMENTO JURÍDICO</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>7320229,0</t>
         </is>
       </c>
       <c r="J295" t="inlineStr"/>
@@ -13958,32 +13958,32 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>JUAN EULISES</t>
+          <t>JUAN ROBERTO</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>FIERRO</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>PAEZ</t>
+          <t>CEREÑO</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>PERIODISTA</t>
+          <t>PROFESOR DE HISTORIA</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN BUENOS AIRES</t>
+          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2756,0</t>
         </is>
       </c>
       <c r="J296" t="inlineStr"/>
@@ -14004,32 +14004,32 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>MARCELA ANGELICA</t>
+          <t>IGNACIO</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>OTERO</t>
+          <t>FERNANDEZ</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>FUENTES</t>
+          <t>RUIZ</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>DIRECTORA DIRECCIÓN ASUNTOS ECONÓMICOS MULTILATERALES</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>7429586,0</t>
+          <t>2452,0</t>
         </is>
       </c>
       <c r="J297" t="inlineStr"/>
@@ -14050,32 +14050,32 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>DIEGO</t>
+          <t>ALVARO</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>OSSES</t>
+          <t>ESPINOZA</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>CAVERO</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN  TAILANDIA</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>2294,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J298" t="inlineStr"/>
@@ -14096,32 +14096,32 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>PAULINA</t>
+          <t>HECTOR</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>NAZAL</t>
+          <t>ECHEVERRIA</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>ARANDA</t>
+          <t>VASQUEZ</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>DIRECTORA  GENERAL DE RELACIONES ECONÓMICAS INTERNACIONALES</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2208184,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J299" t="inlineStr"/>
@@ -14142,17 +14142,17 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>MONICA CONSUELO</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>DURAN</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>CUEVAS</t>
+          <t>PLAZA</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>TELEFONISTA SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
+          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -14188,32 +14188,32 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>ALEJANDRO</t>
+          <t>MARIELA VERONICA</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>MOYA</t>
+          <t>DIAZ</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>ARAYA</t>
+          <t>ZAMORANO</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>INGENIERO CIVIL INDUSTRIAL</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>JEFE SUBDEPARTAMENTO DE OPERACIONES</t>
+          <t>COODINADORA INDUSTRIAS CE REGIÓN METROPOLITANA</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>4364394,0</t>
+          <t>3317183,0</t>
         </is>
       </c>
       <c r="J301" t="inlineStr"/>
@@ -14234,32 +14234,32 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>PAULA XIMENA</t>
+          <t>MARTIN ALEJANDRO</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>MORENO</t>
+          <t>CORREA</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>SILVA</t>
+          <t>FINSTERBUSCH</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>BIOLOGO MARINO</t>
+          <t>ABOGADO</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DEL CONSULADO GENERAL DE CHILE EN SIDNEY AUSTRALIA</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2365,0</t>
         </is>
       </c>
       <c r="J302" t="inlineStr"/>
@@ -14280,32 +14280,32 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>JUAN MANUEL</t>
+          <t>MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>PIÑA</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>TÉCNICO EN RADIO Y TELEVISIÓN</t>
+          <t>SIN PROFESIÓN</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>PROFESIONAL DIRECCIÓN GENERAL</t>
+          <t>ASISTENTE SECCIÓN SERVICIOS GENERALES DEL SUBDEPARTAMENTO DE COMPRAS Y CONTRATACIONES</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1127063,0</t>
+          <t>260127,0</t>
         </is>
       </c>
       <c r="J303" t="inlineStr"/>
@@ -14326,32 +14326,32 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>GIORNA MARIA</t>
+          <t>MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>CRUZ</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>SIN PROFESIÓN</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>DIRECTOR DEPRATAMENTO ADMINISTRATIVO</t>
+          <t>AUXILIAR EN LA OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>7251467,0</t>
+          <t>1008,0</t>
         </is>
       </c>
       <c r="J304" t="inlineStr"/>
@@ -14372,32 +14372,32 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>FERNANDO</t>
+          <t>MIGUEL ANGEL</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>CORDOVA</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>BARRIA</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SIN PROFESIÓN</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>ASESOR DIRECCIÓN DE PROMOCIÓN DE EXPORTACIONES</t>
+          <t>AUXILIAR EN LA OFICINA COMERCIAL DE BOGOTÁ COLOMBIA</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>3792406,0</t>
+          <t>6487,0</t>
         </is>
       </c>
       <c r="J305" t="inlineStr"/>
@@ -14418,32 +14418,32 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RODRIGO ANDRES</t>
+          <t>HUGO ALBERTO</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>MONARDES</t>
+          <t>CORALES</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>VIGNOLO</t>
+          <t>COFRE</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO COMERCIAL</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISION DE CHILE OCDE</t>
+          <t>JEFE OFICINA COMERCIAL BOGOTA COLOMBIA</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2363,0</t>
         </is>
       </c>
       <c r="J306" t="inlineStr"/>
@@ -14464,17 +14464,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RODRIGO</t>
+          <t>ALEJANDRO SHARIFF</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>MLADINIC</t>
+          <t>CHACOFF</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>DRAGUICEVIC</t>
+          <t>PEREZ</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14484,12 +14484,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DEL CONSULADO GENERAL DE CHILE EN LOS ANGELES EE.UU.</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN EMIRATOS ARABES UNIDOS</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2550,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J307" t="inlineStr"/>
@@ -14510,17 +14510,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>MIKHAEL HANNA</t>
+          <t>CARMEN GLORIA</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>MARZUQA</t>
+          <t>CERDA</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>BUTTO</t>
+          <t>CASTILLO</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -14530,12 +14530,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>JEFE OFICINA COMERCIAL TOKIO JAPON</t>
+          <t>JEFA DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN CIUDAD DE MEXICO</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2373,0</t>
         </is>
       </c>
       <c r="J308" t="inlineStr"/>
@@ -14556,32 +14556,32 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>OSVALDO</t>
+          <t>ROSA CRISTINA</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>MARINAO</t>
+          <t>CAYUPI</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>CACERES</t>
+          <t>ALCA</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>BIBLIOTECARIA</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN HOLANDA</t>
+          <t>JEFE SECCIÓN GESTION DOCUMENTAL DEL SUBDEPARTAMENTO DE OPERACIONES</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>3719571,0</t>
         </is>
       </c>
       <c r="J309" t="inlineStr"/>
@@ -14602,32 +14602,32 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>MARIA ANTONIETA</t>
+          <t>AGUSTIN</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>JARA</t>
+          <t>CASES</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>VALDERRAMA</t>
+          <t>NARDOCCI</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO CIVIL INFORMÁTICO</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>REPRESENTACION ECONOMICA EN TAIPEI</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J310" t="inlineStr"/>
@@ -14648,17 +14648,17 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>MARTIN ALEJANDRO</t>
+          <t>ENRIQUE</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>CORREA</t>
+          <t>CARRASCO</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>FINSTERBUSCH</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -14668,12 +14668,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN VARSOVIA POLONIA</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2365,0</t>
+          <t>2534,0</t>
         </is>
       </c>
       <c r="J311" t="inlineStr"/>
@@ -14694,32 +14694,32 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>MARIELA VERONICA</t>
+          <t>PATRICIO ANDRES</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>DIAZ</t>
+          <t>CANIULAO</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>ZAMORANO</t>
+          <t>MUÑOZ</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO EN COMERCIO INTERNACIONAL</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>COODINADORA INDUSTRIAS CE REGIÓN METROPOLITANA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN URUGUAY</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>3317183,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J312" t="inlineStr"/>
@@ -14740,32 +14740,32 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>MONICA CONSUELO</t>
+          <t>ALBERTO</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>DURAN</t>
+          <t>CAÑAS</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>PLAZA</t>
+          <t>SALINAS</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>SECRETARIA ADMINISTRATIVA</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>SECRETARIA DEL DEPARTAMENTO ESTUDIOS</t>
+          <t>ASISTENTE DEL SUBDEPARTAMENTO DE ASIA Y OCEANIA</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1101169,0</t>
+          <t>3130156,0</t>
         </is>
       </c>
       <c r="J313" t="inlineStr"/>
@@ -14786,32 +14786,32 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>HECTOR</t>
+          <t>JOSE</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>ECHEVERRIA</t>
+          <t>CAMPUSANO</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>VASQUEZ</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>INGENIERO CIVIL EN MINAS</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN PERU</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN LA FEDERACIÓN RUSA</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2536,0</t>
         </is>
       </c>
       <c r="J314" t="inlineStr"/>
@@ -14832,32 +14832,32 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>ALVARO</t>
+          <t>JOSE MANUEL</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>ESPINOZA</t>
+          <t>CAMPOS</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>SOTO</t>
+          <t>ABAD</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>CIENTISTA POLÍTICO</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>PROFESIONAL PSGR</t>
+          <t>PROFESIONAL EN MISIÓN DE CHILE EN LA OMC</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2550,0</t>
         </is>
       </c>
       <c r="J315" t="inlineStr"/>
@@ -14878,32 +14878,32 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>IGNACIO</t>
+          <t>HUGO</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>FERNANDEZ</t>
+          <t>CALDERON</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>RUIZ</t>
+          <t>MERINO</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>ABOGADO</t>
+          <t>SOCIOLOGO</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN REINO UNIDO</t>
+          <t>PROFESIONAL PSGR</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>2452,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J316" t="inlineStr"/>
@@ -14924,32 +14924,32 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>JUAN ROBERTO</t>
+          <t>JORGE</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>FIERRO</t>
+          <t>CACERES</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>CEREÑO</t>
+          <t>REYES</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>PROFESOR DE HISTORIA</t>
+          <t>INGENIERO CIVIL INDUSTRIAL</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>MISION DE CHILE EN LA COMUNIDAD ECONOMICA EUROPEA</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN VENEZUELA</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2756,0</t>
+          <t>2548,0</t>
         </is>
       </c>
       <c r="J317" t="inlineStr"/>
@@ -14970,17 +14970,17 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>FEDERICO ANDRES</t>
+          <t>ALEJANDRO</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>GAJARDO</t>
+          <t>BUVINIC</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>VERGARA</t>
+          <t>ALARCON</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -14990,12 +14990,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>DIRECTOR DEPARTAMENTO JURÍDICO</t>
+          <t>DIRECTOR DIRECCIÓN DE PROMOCIÓN DE EXPORTACIONES</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>7320229,0</t>
+          <t>7712550,0</t>
         </is>
       </c>
       <c r="J318" t="inlineStr"/>
@@ -15016,32 +15016,32 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>SACHA DALIBOR</t>
+          <t>PATRICIO</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>GARAFULIC</t>
+          <t>BARRUECO</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>OLIVARES</t>
+          <t>SOTO</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>INGENIERO COMERCIAL</t>
+          <t>INGENIERO DE EJECUCIÓN EN ADMINISTRACIÓN DE NEGOCIOS</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO CONSULADO GENERAL DE CHILE EN MIAMI EEUU</t>
+          <t>JEFE DEPARTAMENTO ECONOMICO DE LA EMBAJADA DE CHILE EN COSTA RICA</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2565,0</t>
         </is>
       </c>
       <c r="J319" t="inlineStr"/>
@@ -15062,32 +15062,32 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>GUILLERMO</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>GARRIDO</t>
+          <t>BANDA</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>MONTECINOS</t>
+          <t>MALDONADO</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>INGENIERO AGRONOMO</t>
+          <t>ADMINISTRADOR PUBLICO</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>JEFE SECCIÓN PERSONAL DEL SUBDEPARTAMENTO DE RED EXTERNA</t>
+          <t>JEFE DEPARTAMENTO GESTION Y PLANIFICACION</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>3343879,0</t>
+          <t>4312338,0</t>
         </is>
       </c>
       <c r="J320" t="inlineStr"/>
@@ -15108,17 +15108,17 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>HERNAN ALFONSO</t>
+          <t>MAURICIO</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>GUTIERREZ</t>
+          <t>BANCHIERI</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>BERMEDO</t>
+          <t>CARTER</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -15128,12 +15128,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>JEFE DEPARTAMENTO ECONÓMICO DE LA EMBAJADA DE CHILE EN SUDAFRICA</t>
+          <t>JEFE OFICINA COMERCIAL DE CHILE EN NUEVA YORK EEUU</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2548,0</t>
+          <t>2447,0</t>
         </is>
       </c>
       <c r="J321" t="inlineStr"/>
@@ -15154,17 +15154,17 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>FELIPE ALEJANDRO</t>
+          <t>MARIA CECILIA</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>HENRIQUEZ</t>
+          <t>ARROYO</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>PALMA</t>
+          <t>ALBALA</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -15174,12 +15174,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>PROFESIONAL MISION PERMANENTE DE CHILE ANTE LA ORGANIZACION MUNDIAL DE COMERCIO  OMC</t>
+          <t>JEFE SUBDEPARTAMENTO DERECHO INTERNACIONAL</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>2445,0</t>
+          <t>4391318,0</t>
         </is>
       </c>
       <c r="J322" t="inlineStr"/>
